--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C29" s="26" t="n"/>
       <c r="D29" s="19" t="n">
-        <v>779.3</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="20">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C30" s="26" t="n"/>
       <c r="D30" s="19" t="n">
-        <v>898.6</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="20">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C31" s="26" t="n"/>
       <c r="D31" s="19" t="n">
-        <v>572.2</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="20">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C32" s="26" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>637.7</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="20">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C33" s="26" t="n"/>
       <c r="D33" s="19" t="n">
-        <v>623</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" s="20">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="19" t="n">
-        <v>702</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="20">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="19" t="n">
-        <v>568</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="20">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="19" t="n">
-        <v>669</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" s="20"/>
@@ -1160,20 +1160,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C29" s="26" t="n"/>
       <c r="D29" s="19" t="n">
-        <v>1619</v>
+        <v>779.3</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="20">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C30" s="26" t="n"/>
       <c r="D30" s="19" t="n">
-        <v>1896</v>
+        <v>898.6</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="20">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C31" s="26" t="n"/>
       <c r="D31" s="19" t="n">
-        <v>1223</v>
+        <v>572.2</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="20">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C32" s="26" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>1365</v>
+        <v>637.7</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="20">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C33" s="26" t="n"/>
       <c r="D33" s="19" t="n">
-        <v>1326</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" s="20">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="19" t="n">
-        <v>1577</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="20">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="19" t="n">
-        <v>1521</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="20">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="19" t="n">
-        <v>1779</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" s="20"/>
@@ -1160,20 +1160,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1160,20 +1160,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1160,20 +1160,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1160,20 +1160,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/RODLLO LINEA LANA SIMIL LANA ANTIGOTA DISMAY.xlsx
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45415</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C29" s="26" t="n"/>
       <c r="D29" s="19" t="n">
-        <v>779.3</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="20">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C30" s="26" t="n"/>
       <c r="D30" s="19" t="n">
-        <v>898.6</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="20">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C31" s="26" t="n"/>
       <c r="D31" s="19" t="n">
-        <v>572.2</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="20">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C32" s="26" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>637.7</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="20">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C33" s="26" t="n"/>
       <c r="D33" s="19" t="n">
-        <v>623</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" s="20">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="19" t="n">
-        <v>702</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="20">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="19" t="n">
-        <v>568</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="20">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="19" t="n">
-        <v>669</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" s="20"/>
@@ -1160,20 +1160,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
